--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterMinutes_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="84">
   <si>
     <t>ModuleName</t>
   </si>
@@ -262,12 +262,25 @@
   </si>
   <si>
     <t>tskNT_ExecuteTask_MTAfterMinutes</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>14-05-2024</t>
+  </si>
+  <si>
+    <t>17-05-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET307</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -612,32 +625,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="9.1796875" style="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="1"/>
-    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
+    <col min="10" max="17" style="1" width="9.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="19" max="19" style="1" width="9.1796875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
+    <col min="22" max="23" style="1" width="9.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
+    <col min="34" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -772,8 +785,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>73</v>
+      <c r="K2" t="s" s="1">
+        <v>81</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -781,10 +794,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s" s="1">
         <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -835,11 +848,11 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>54</v>
+      <c r="AG2" t="s" s="1">
+        <v>83</v>
+      </c>
+      <c r="AK2" t="s" s="1">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -861,23 +874,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1012,7 +1025,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>73</v>
       </c>
       <c r="L2" s="1">
@@ -1021,10 +1034,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1074,7 +1087,7 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -1097,12 +1110,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1237,7 +1250,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>73</v>
       </c>
       <c r="L2" s="1">
@@ -1246,10 +1259,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1299,7 +1312,7 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -1322,11 +1335,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1461,7 +1474,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>73</v>
       </c>
       <c r="L2" s="1">
@@ -1470,10 +1483,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1523,7 +1536,7 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>78</v>
       </c>
     </row>

--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterMinutes_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="79">
   <si>
     <t>ModuleName</t>
   </si>
@@ -186,9 +186,6 @@
     <t>SequenceNo</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>http://www.google.com/</t>
   </si>
   <si>
@@ -243,44 +240,31 @@
     <t>02:35:55 PM</t>
   </si>
   <si>
-    <t>04-05-2024</t>
-  </si>
-  <si>
-    <t>ET146</t>
-  </si>
-  <si>
     <t>ET147</t>
   </si>
   <si>
-    <t>04-05-2024 03:52:50 PM</t>
-  </si>
-  <si>
-    <t>04-05-2024 03:58:15 PM</t>
-  </si>
-  <si>
     <t>ET161</t>
   </si>
   <si>
-    <t>tskNT_ExecuteTask_MTAfterMinutes</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>14-05-2024</t>
-  </si>
-  <si>
-    <t>17-05-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>ET307</t>
+    <t>18-07-2024</t>
+  </si>
+  <si>
+    <t>21-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET2641</t>
+  </si>
+  <si>
+    <t>ET_MTAfterMinutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -619,38 +603,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
-    <col min="10" max="17" style="1" width="9.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="19" max="19" style="1" width="9.1796875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
-    <col min="22" max="23" style="1" width="9.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
-    <col min="34" max="16384" style="1" width="9.1796875"/>
+    <col min="1" max="1" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="9.1796875" style="1"/>
+    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" style="1"/>
+    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.1796875" style="1"/>
+    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -785,8 +769,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="1">
-        <v>81</v>
+      <c r="K2" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -794,11 +778,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="1">
-        <v>82</v>
-      </c>
-      <c r="O2" t="s" s="1">
-        <v>72</v>
+      <c r="N2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -813,7 +797,7 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>36</v>
@@ -834,7 +818,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>46</v>
@@ -848,11 +832,11 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s" s="1">
-        <v>83</v>
-      </c>
-      <c r="AK2" t="s" s="1">
-        <v>80</v>
+      <c r="AG2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -869,28 +853,28 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" customWidth="true" width="21.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1011,22 +995,22 @@
         <v>1234567890</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>73</v>
+      <c r="K2" t="s">
+        <v>75</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1034,17 +1018,17 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>72</v>
+      <c r="N2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R2" s="1">
         <v>2323232323</v>
@@ -1053,10 +1037,10 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>37</v>
@@ -1074,7 +1058,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1087,8 +1071,8 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s" s="0">
-        <v>75</v>
+      <c r="AG2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1105,17 +1089,17 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1236,22 +1220,22 @@
         <v>1234567890</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>73</v>
+      <c r="K2" t="s">
+        <v>75</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1259,17 +1243,17 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>72</v>
+      <c r="N2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R2" s="1">
         <v>2323232323</v>
@@ -1278,10 +1262,10 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>37</v>
@@ -1299,7 +1283,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1312,8 +1296,8 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s" s="0">
-        <v>78</v>
+      <c r="AG2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1329,17 +1313,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1460,22 +1444,22 @@
         <v>1234567890</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>73</v>
+      <c r="K2" t="s">
+        <v>75</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1483,17 +1467,17 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>72</v>
+      <c r="N2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R2" s="1">
         <v>2323232323</v>
@@ -1502,10 +1486,10 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>37</v>
@@ -1523,7 +1507,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1536,8 +1520,8 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s" s="0">
-        <v>78</v>
+      <c r="AG2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_MTAfterMinutes_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="81">
   <si>
     <t>ModuleName</t>
   </si>
@@ -259,12 +259,19 @@
   </si>
   <si>
     <t>ET_MTAfterMinutes</t>
+  </si>
+  <si>
+    <t>13-01-2025</t>
+  </si>
+  <si>
+    <t>16-01-2025 05:00:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,32 +616,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="9.1796875" style="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="1"/>
-    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
+    <col min="10" max="17" style="1" width="9.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="19" max="19" style="1" width="9.1796875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
+    <col min="22" max="23" style="1" width="9.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
+    <col min="34" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -769,8 +776,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>75</v>
+      <c r="K2" t="s" s="1">
+        <v>79</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -778,10 +785,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s" s="1">
         <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -835,7 +842,7 @@
       <c r="AG2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" t="s" s="1">
         <v>74</v>
       </c>
     </row>
@@ -858,23 +865,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1009,8 +1016,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>75</v>
+      <c r="K2" t="s" s="0">
+        <v>79</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1018,10 +1025,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1071,7 +1078,7 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>72</v>
       </c>
     </row>
@@ -1094,12 +1101,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1234,8 +1241,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>75</v>
+      <c r="K2" t="s" s="0">
+        <v>79</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1243,10 +1250,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1296,7 +1303,7 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>73</v>
       </c>
     </row>
@@ -1319,11 +1326,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1458,8 +1465,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>75</v>
+      <c r="K2" t="s" s="0">
+        <v>79</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1467,10 +1474,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1520,7 +1527,7 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>73</v>
       </c>
     </row>
